--- a/resources/wheels/228 - Чумаров.xlsx
+++ b/resources/wheels/228 - Чумаров.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -691,16 +691,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,9 +897,9 @@
       <c r="F16" s="18">
         <v>57.5</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>67.3</v>
+        <v>76.50099999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -993,7 +993,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -1003,7 +1005,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -1013,7 +1017,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -1534,16 +1540,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,9 +1746,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1836,7 +1842,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -1846,7 +1854,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -1856,7 +1866,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -2377,16 +2389,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2583,9 +2595,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2679,7 +2691,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -2689,7 +2703,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -2699,7 +2715,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -3220,16 +3238,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3426,9 +3444,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3522,7 +3540,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -3532,7 +3552,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -3542,7 +3564,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -4063,16 +4087,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4269,9 +4293,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4365,7 +4389,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -4375,7 +4401,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -4385,7 +4413,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -4906,16 +4936,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5112,9 +5142,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5208,7 +5238,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -5218,7 +5250,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -5228,7 +5262,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -5749,16 +5785,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5955,9 +5991,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6051,7 +6087,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -6061,7 +6099,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -6071,7 +6111,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -6592,16 +6634,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6798,9 +6840,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6894,7 +6936,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -6904,7 +6948,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -6914,7 +6960,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -7435,16 +7483,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7641,9 +7689,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7737,7 +7785,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -7747,7 +7797,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -7757,7 +7809,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -8278,16 +8332,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8484,9 +8538,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8580,7 +8634,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -8590,7 +8646,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -8600,7 +8658,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
@@ -9121,16 +9181,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9327,9 +9387,9 @@
       <c r="F16" s="18">
         <v>40.799999999999997</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>50.6</v>
+        <v>59.801</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9423,7 +9483,9 @@
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>2.612</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
@@ -9433,7 +9495,9 @@
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>5.015</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
@@ -9443,7 +9507,9 @@
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>1.574</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
     </row>
